--- a/Data/Betas.xlsx
+++ b/Data/Betas.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\ITESO\7º\Simulación de Procesos Financieros\Proyecto\Proyecto_DALopez_EMarquez\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58AE70-4847-4B32-84F2-6D3C8AE6C749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="930" yWindow="195" windowWidth="13140" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodo4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Betas</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +92,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +178,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +230,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,43 +423,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.695848754854305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.6958487548543051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.144105533259547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.1441055332595469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.425863370789857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1.4258633707898569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -409,47 +469,47 @@
         <v>1.546889599420703</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.517356019151101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1.5173560191511011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7761457958194454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.77614579581944543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7153379419473093</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.71533794194730926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.016827665396212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>1.0168276653962121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.570655092553043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>1.5706550925530429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -457,31 +517,31 @@
         <v>1.131774623110388</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.113322199279884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>1.1133221992798841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6801749325372363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.68017493253723627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.450107917078843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>1.4501079170788429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -489,39 +549,39 @@
         <v>1.03767444862803</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7791939607310585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.77919396073105851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.004779214494227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1.0047792144942269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.442375349825533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1.4423753498255329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.145312435504087</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1.1453124355040869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -529,39 +589,39 @@
         <v>1.268875051905531</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.529650242897597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1.5296502428975971</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7314483138800293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.73144831388002929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.786534388159915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1.7865343881599149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9389625233824817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.93896252338248165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -569,23 +629,23 @@
         <v>1.446224256655928</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.306790837255266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1.3067908372552659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9374210633072599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.93742106330725994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -593,15 +653,15 @@
         <v>1.803135660104481</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.634688626636236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1.6346886266362359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -609,7 +669,7 @@
         <v>1.243820146103144</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -617,15 +677,15 @@
         <v>1.766009935969284</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.334220666981179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.3342206669811789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -633,15 +693,15 @@
         <v>1.555573826795333</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.065523210856229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1.0655232108562289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -649,7 +709,7 @@
         <v>1.236308331917052</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -657,47 +717,47 @@
         <v>1.227405306138267</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9009250822784303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.90092508227843027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.52582830220139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1.5258283022013901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.107310876046873</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.1073108760468731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.323037728814816</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.3230377288148161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.170187039555386</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1.1701870395553859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -705,7 +765,7 @@
         <v>1.202373194136261</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -713,7 +773,7 @@
         <v>1.092956282159377</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -721,7 +781,7 @@
         <v>1.349491894085221</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -729,7 +789,7 @@
         <v>1.79899491341402</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -737,39 +797,39 @@
         <v>1.025157540677575</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.554134841556779</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1.5541348415567791</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.218087571023878</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.2180875710238781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.69796815532727</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.6979681553272701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8802002797477541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.88020027974775406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -777,7 +837,7 @@
         <v>1.372177371704669</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -785,7 +845,7 @@
         <v>1.498995362430017</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -793,15 +853,15 @@
         <v>1.495422106312192</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7163238348774348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.71632383487743478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -809,7 +869,7 @@
         <v>1.239459804083701</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -817,7 +877,7 @@
         <v>1.234158294149353</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -825,7 +885,7 @@
         <v>1.473482804801127</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -833,7 +893,7 @@
         <v>1.70832528160618</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -841,15 +901,15 @@
         <v>1.498754977264195</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.069007266159891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1.0690072661598911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -857,7 +917,7 @@
         <v>1.112749197668941</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -865,31 +925,31 @@
         <v>1.613938340238807</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.675521932804593</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>1.6755219328045929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9239406829667621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.92394068296676213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8730764810153016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.87307648101530155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -897,7 +957,7 @@
         <v>1.068091065915856</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -905,7 +965,7 @@
         <v>1.541965218997543</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -913,7 +973,7 @@
         <v>1.413487989191516</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -921,7 +981,7 @@
         <v>0.9562414993471221</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -929,7 +989,7 @@
         <v>1.359451710187755</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -937,7 +997,7 @@
         <v>0.8438307120017865</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -945,15 +1005,15 @@
         <v>1.413122789124809</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.9657931760083512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.96579317600835124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -961,7 +1021,7 @@
         <v>1.08803770886887</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -969,15 +1029,15 @@
         <v>1.186054264767634</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.37938104008874</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1.3793810400887401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -985,47 +1045,47 @@
         <v>1.230984195330979</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8541867834529994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.85418678345299937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.56445346800065</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1.5644534680006501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.907443508420951</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.90744350842095101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.491819801310437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1.4918198013104369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.143240593484996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.1432405934849961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1033,7 +1093,7 @@
         <v>1.289298232347543</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1041,23 +1101,23 @@
         <v>1.577243071821153</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.014806625429172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1.0148066254291721</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.48769574780673</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1.4876957478067301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1065,23 +1125,23 @@
         <v>1.534372088836693</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.989237017455374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.98923701745537396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.135407614280817</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.1354076142808169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1089,23 +1149,23 @@
         <v>1.170280007691658</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.982020338770986</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.98202033877098605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.681991886363494</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1.6819918863634939</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1113,7 +1173,7 @@
         <v>1.433545105907376</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1121,7 +1181,7 @@
         <v>1.281777400136848</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1129,7 +1189,7 @@
         <v>1.418237234457334</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1137,15 +1197,15 @@
         <v>1.182210030144367</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.006849432400594</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1.0068494324005941</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1153,7 +1213,7 @@
         <v>1.290931990917878</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1161,39 +1221,39 @@
         <v>1.765951342967699</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9604588222300799</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.96045882223007994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.651777979342062</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>1.6517779793420619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.663117172218575</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>1.6631171722185749</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9542530843841575</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.95425308438415746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1201,31 +1261,31 @@
         <v>1.362926370649155</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.497819516787737</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>1.4978195167877371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.61282932108958</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>1.6128293210895801</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9415033914584843</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.94150339145848427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>1.331437810544047</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1241,55 +1301,55 @@
         <v>1.276794648153289</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.837063776131955</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.83706377613195504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.42460062059898</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1.4246006205989801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7667653261114616</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.76676532611146164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.616712485179289</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1.6167124851792889</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.555885127093474</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.5558851270934739</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.8853940443146255</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.88539404431462554</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1297,15 +1357,15 @@
         <v>1.148659738527664</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.601834884746057</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1.6018348847460571</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1313,31 +1373,31 @@
         <v>1.603127012269536</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.8819216646203842</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.88192166462038424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6848023790282805</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.68480237902828045</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9491766275382885</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.94917662753828846</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1345,7 +1405,7 @@
         <v>1.080188299619812</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1353,23 +1413,23 @@
         <v>1.492201336298054</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.6839365533429277</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.68393655334292769</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.305620140254926</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.3056201402549259</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1377,23 +1437,23 @@
         <v>1.456575736123644</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8921575814280358</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.89215758142803581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8970812664251384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.89708126642513841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1401,7 +1461,7 @@
         <v>0.7329070114243702</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1409,7 +1469,7 @@
         <v>1.448529982191658</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1417,7 +1477,7 @@
         <v>1.310864031862262</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1425,39 +1485,39 @@
         <v>1.330601795507472</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.8398316524917986</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.83983165249179859</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.425451378283675</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1.4254513782836751</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8396619406979197</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.83966194069791966</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.603035993986834</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>1.6030359939868339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1465,31 +1525,31 @@
         <v>1.442110461113727</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.862781922043058</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.86278192204305804</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.611162903577415</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>1.6111629035774151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.47363001846008</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1.4736300184600799</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1497,31 +1557,31 @@
         <v>1.374684323600369</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9708129122967686</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.97081291229676858</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.054671649739599</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>1.0546716497395989</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.7673414953420712</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.76734149534207119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -1529,7 +1589,7 @@
         <v>0.8685188625570488</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -1537,7 +1597,7 @@
         <v>1.713865946555676</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -1545,15 +1605,15 @@
         <v>1.364690247622417</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.081144914580558</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>1.0811449145805581</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -1561,7 +1621,7 @@
         <v>1.124098728148744</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -1569,15 +1629,15 @@
         <v>1.203874466554385</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.817821100697923</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>0.81782110069792302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -1585,7 +1645,7 @@
         <v>1.213869402578766</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -1593,23 +1653,23 @@
         <v>1.449496392883997</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.756262642331204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>0.75626264233120399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.675330718636573</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>1.6753307186365729</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -1617,7 +1677,7 @@
         <v>1.469700686215851</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -1625,31 +1685,31 @@
         <v>1.705636935782594</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.8929116633522622</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>0.89291166335226224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.192339564493118</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>1.1923395644931181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.464133183662376</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>1.4641331836623761</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -1657,31 +1717,31 @@
         <v>1.376822898565784</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7793487540988805</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>0.77934875409888049</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.184118870467732</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>1.1841188704677319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.082011137367923</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>1.0820111373679231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -1689,7 +1749,7 @@
         <v>1.324483830095319</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -1697,15 +1757,15 @@
         <v>1.569259763471839</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.045053329379562</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>1.0450533293795621</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -1713,7 +1773,7 @@
         <v>1.05456742242682</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -1721,47 +1781,47 @@
         <v>1.126539027697268</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.495455317021885</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>1.4954553170218849</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.655277552723346</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>1.6552775527233461</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.048384734429577</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>1.0483847344295769</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.8459595813348911</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>0.84595958133489113</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.132181280006873</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>1.1321812800068729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -1769,7 +1829,7 @@
         <v>1.383830664785034</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -1777,15 +1837,15 @@
         <v>1.431259896683247</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.8722620469866403</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>0.87226204698664034</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -1793,7 +1853,7 @@
         <v>1.100478463629889</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -1801,7 +1861,7 @@
         <v>0.9937365476122767</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -1809,7 +1869,7 @@
         <v>1.425111513722406</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -1817,7 +1877,7 @@
         <v>1.024962417772558</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -1825,7 +1885,7 @@
         <v>1.094639831031426</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -1833,15 +1893,15 @@
         <v>1.554151108106282</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.8840371718261233</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
+        <v>0.88403717182612329</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -1849,23 +1909,23 @@
         <v>1.148387511513586</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.3292198352863</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>1.3292198352863001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.7433202560314606</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>0.74332025603146057</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -1873,31 +1933,31 @@
         <v>1.079632025918297</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9286022127256192</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>0.92860221272561916</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.651127116726738</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
+        <v>1.6511271167267381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.9658087886190082</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
+        <v>0.96580878861900821</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -1905,7 +1965,7 @@
         <v>1.442676523126156</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -1913,7 +1973,7 @@
         <v>1.598624149266445</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -1921,7 +1981,7 @@
         <v>1.271663646206544</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -1929,23 +1989,23 @@
         <v>1.052959704193192</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.764782636012847</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>1.7647826360128469</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.251553913067507</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>1.2515539130675071</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -1953,15 +2013,15 @@
         <v>1.234491747901852</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.74514961101687</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
+        <v>1.7451496110168701</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -1969,31 +2029,31 @@
         <v>1.032411795247967</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.8843877116445238</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
+        <v>0.88438771164452379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.118583798562437</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
+        <v>1.1185837985624369</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9703911882095931</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>0.97039118820959314</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -2001,15 +2061,15 @@
         <v>1.535615237621025</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.385173182855277</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
+        <v>1.3851731828552769</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -2017,31 +2077,31 @@
         <v>1.055601551893008</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9199804194276704</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
+        <v>0.91998041942767039</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.130633986330907</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+        <v>1.1306339863309069</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.7679459794165295</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+        <v>0.76794597941652953</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -2049,7 +2109,7 @@
         <v>1.051709889743863</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -2057,15 +2117,15 @@
         <v>1.470459668895328</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.8401811573346336</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+        <v>0.84018115733463361</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -2073,15 +2133,15 @@
         <v>1.534733278918414</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.370564615888486</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+        <v>1.3705646158884861</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -2089,7 +2149,7 @@
         <v>1.30745480471628</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -2097,15 +2157,15 @@
         <v>1.023995480174611</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.339271786685078</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+        <v>1.3392717866850781</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -2113,23 +2173,23 @@
         <v>1.09593197920413</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.431919323825665</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+        <v>1.4319193238256649</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9884490756962109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+        <v>0.98844907569621088</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -2137,23 +2197,23 @@
         <v>1.057259401410271</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.7465732203534846</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>0.74657322035348461</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.7841085665215942</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>0.78410856652159422</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -2161,7 +2221,7 @@
         <v>1.040742551049487</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -2169,39 +2229,39 @@
         <v>0.6785103088822767</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.238369664037757</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
+        <v>1.2383696640377571</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.8997055351556572</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
+        <v>0.89970553515565721</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.7131261217469685</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>0.71312612174696854</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.264066937395781</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
+        <v>1.2640669373957809</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -2209,7 +2269,7 @@
         <v>1.176475419460429</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -2217,15 +2277,15 @@
         <v>1.556316227010754</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.9935911869775357</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
+        <v>0.99359118697753568</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -2233,23 +2293,23 @@
         <v>0.8364068167983264</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.9634331264026159</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
+        <v>0.96343312640261591</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.186548998183309</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
+        <v>1.1865489981833091</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -2257,23 +2317,23 @@
         <v>1.457248398504555</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9743727300381593</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
+        <v>0.97437273003815927</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.7065895951244544</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
+        <v>0.70658959512445441</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -2281,63 +2341,63 @@
         <v>1.081411000108329</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.726234254194739</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
+        <v>0.72623425419473897</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.781893815062867</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
+        <v>1.7818938150628669</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.727474461572569</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
+        <v>0.72747446157256901</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.7645916044674667</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
+        <v>0.76459160446746666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.257135092150479</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>1.2571350921504789</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.7266438443593454</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
+        <v>0.72664384435934537</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9493523689990518</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>0.94935236899905184</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -2345,15 +2405,15 @@
         <v>1.153068491157359</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.217777083597129</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>1.2177770835971291</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -2361,7 +2421,7 @@
         <v>0.7034304539637638</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -2369,15 +2429,15 @@
         <v>1.11094189483897</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.7809627926134066</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>0.78096279261340662</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -2385,15 +2445,15 @@
         <v>1.338099877590313</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.9607137451719479</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
+        <v>0.96071374517194785</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -2401,7 +2461,7 @@
         <v>1.137072591509978</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -2409,23 +2469,23 @@
         <v>1.174434203132809</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.145529854253483</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
+        <v>1.1455298542534831</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.8691423908975553</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>0.86914239089755529</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -2433,15 +2493,15 @@
         <v>1.47310576422455</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.15050535305883</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
+        <v>1.1505053530588301</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -2449,47 +2509,47 @@
         <v>1.289629057776235</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.642578192333466</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
+        <v>1.6425781923334659</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.9214158046802695</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
+        <v>0.92141580468026951</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.8379203188430694</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
+        <v>0.83792031884306939</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.143747512532353</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
+        <v>1.1437475125323531</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.9645983357955795</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
+        <v>0.96459833579557952</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -2497,15 +2557,15 @@
         <v>1.511888982872946</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1.346043238348596</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
+        <v>1.3460432383485961</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -2513,7 +2573,7 @@
         <v>1.311278202256539</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -2521,39 +2581,39 @@
         <v>1.099815481076541</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.9392774659943782</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
+        <v>0.93927746599437822</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.027486166517014</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
+        <v>1.0274861665170141</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.6683089876977865</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>0.66830898769778646</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.032652121414115</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>1.0326521214141151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -2561,47 +2621,47 @@
         <v>1.486614609234566</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.7350412102717728</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>0.73504121027177283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.525425751173309</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>1.5254257511733089</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.342953239971837</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>1.3429532399718369</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.239945643523623</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>1.2399456435236229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1.201363636652839</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>1.2013636366528391</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -2609,23 +2669,23 @@
         <v>1.330686921620684</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.283498278019647</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>1.2834982780196471</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.7273540133889286</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>0.72735401338892858</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -2633,71 +2693,71 @@
         <v>1.207273967814231</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.9199404757676322</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>0.91994047576763216</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.9549766009048725</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>0.95497660090487246</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.9625257825847645</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>0.96252578258476451</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.71085941581245</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>0.71085941581245005</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.150020236096648</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
+        <v>1.1500202360966481</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.9969232674917625</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
+        <v>0.99692326749176252</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.8695991996228215</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
+        <v>0.86959919962282151</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.8234426064221729</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
+        <v>0.82344260642217293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -2705,7 +2765,7 @@
         <v>1.01532871016708</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -2713,23 +2773,23 @@
         <v>1.240242181123099</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.9903740317443571</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>0.99037403174435712</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.7192137909027649</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
+        <v>0.71921379090276494</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -2737,15 +2797,15 @@
         <v>0.8739288581661302</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.254406117577204</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
+        <v>1.2544061175772041</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -2753,23 +2813,23 @@
         <v>1.189107497810667</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.192383181247824</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
+        <v>1.1923831812478241</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.7909210953491577</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
+        <v>0.79092109534915767</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -2777,23 +2837,23 @@
         <v>1.135467020444578</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.346496848167784</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2">
+        <v>1.3464968481677839</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.8621960697863786</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
+        <v>0.86219606978637864</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -2801,7 +2861,7 @@
         <v>0.9352979457177506</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -2809,31 +2869,31 @@
         <v>1.277978272862206</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.9745026411370334</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
+        <v>0.97450264113703344</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.9015792767844734</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
+        <v>0.90157927678447336</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.262577335972037</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
+        <v>1.2625773359720369</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -2841,15 +2901,15 @@
         <v>1.005199143717443</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.199039116945987</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+        <v>1.1990391169459871</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -2857,7 +2917,7 @@
         <v>1.029331158175296</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -2865,23 +2925,23 @@
         <v>1.158338042225135</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.8744905198412966</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2">
+        <v>0.87449051984129655</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.209068993939831</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
+        <v>1.2090689939398309</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -2889,23 +2949,23 @@
         <v>1.036159811678155</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.135325234157765</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
+        <v>1.1353252341577651</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.9458849795580347</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
+        <v>0.94588497955803474</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -2913,7 +2973,7 @@
         <v>1.313166011549717</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -2921,7 +2981,7 @@
         <v>1.220049734059355</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -2929,7 +2989,7 @@
         <v>1.302072790107508</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -2937,7 +2997,7 @@
         <v>1.376105559932354</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -2945,7 +3005,7 @@
         <v>0.8490947112308932</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -2953,31 +3013,31 @@
         <v>1.059792995466742</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.9836267160776319</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>0.98362671607763186</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.9915667125749175</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>0.99156671257491746</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.222965783169108</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <v>1.2229657831691081</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -2985,7 +3045,7 @@
         <v>1.016885300557639</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -2993,15 +3053,15 @@
         <v>1.351265825004617</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.9832261535461013</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>0.98322615354610132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -3009,23 +3069,23 @@
         <v>0.9238526821355596</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.194116611985716</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>1.1941166119857161</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.8875920854922775</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <v>0.88759208549227753</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -3033,7 +3093,7 @@
         <v>1.108282912385961</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -3041,23 +3101,23 @@
         <v>1.331548020220267</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.9202921106603357</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>0.92029211066033567</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.323324534854604</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
+        <v>1.3233245348546041</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -3065,7 +3125,7 @@
         <v>1.14278960783103</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -3073,7 +3133,7 @@
         <v>1.23732829892561</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -3081,39 +3141,39 @@
         <v>1.081119730069027</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.2262511529171</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>1.2262511529171001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.416670967873705</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2">
+        <v>1.4166709678737051</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.000697353987288</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>1.0006973539872881</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.8957693374301391</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2">
+        <v>0.89576933743013909</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -3121,55 +3181,55 @@
         <v>1.084226625486524</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.074545460215593</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2">
+        <v>1.0745454602155931</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.7888024228934544</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2">
+        <v>0.78880242289345437</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.101568806541758</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2">
+        <v>1.1015688065417579</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.214672435369249</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2">
+        <v>1.2146724353692491</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.8493935142832305</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2">
+        <v>0.84939351428323051</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.8131212937391242</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2">
+        <v>0.81312129373912423</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -3177,23 +3237,23 @@
         <v>1.236791797210433</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.8261871756563774</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2">
+        <v>0.82618717565637745</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.9753328135329322</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <v>0.97533281353293222</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -3201,15 +3261,15 @@
         <v>0.8552542675703112</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.744228172462127</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
+        <v>1.7442281724621269</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -3217,7 +3277,7 @@
         <v>1.57274774144829</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -3225,39 +3285,39 @@
         <v>1.396055931803186</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.8687237016379835</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
+        <v>0.86872370163798351</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.456392955070113</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2">
+        <v>1.4563929550701129</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.8723743669173901</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2">
+        <v>0.87237436691739012</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.8601092540690762</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2">
+        <v>0.86010925406907623</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -3265,7 +3325,7 @@
         <v>1.465288866200458</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -3273,15 +3333,15 @@
         <v>1.686056735183165</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364">
-        <v>1.171062392252188</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2">
+        <v>1.1710623922521879</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -3289,7 +3349,7 @@
         <v>1.63879999789015</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -3297,23 +3357,23 @@
         <v>1.425382610555229</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1.749606311914775</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2">
+        <v>1.7496063119147749</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1.076329644260155</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2">
+        <v>1.0763296442601551</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -3321,7 +3381,7 @@
         <v>1.512484296988106</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -3329,47 +3389,47 @@
         <v>1.166350943510847</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.439089518872365</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2">
+        <v>1.4390895188723649</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.7928122510127097</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
+        <v>0.79281225101270969</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.432649541553923</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2">
+        <v>1.4326495415539231</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.49487603017028</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2">
+        <v>1.4948760301702799</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.9899904131950937</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2">
+        <v>0.98999041319509373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -3377,31 +3437,31 @@
         <v>1.286958857244114</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.8811238271953299</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2">
+        <v>0.88112382719532989</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.8612856024994436</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2">
+        <v>0.86128560249944364</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.60906590762847</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2">
+        <v>1.6090659076284699</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -3409,23 +3469,23 @@
         <v>1.555224420271252</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.05876664278706</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2">
+        <v>1.0587666427870599</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.8280727758874483</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2">
+        <v>0.82807277588744832</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -3433,15 +3493,15 @@
         <v>1.533461106737861</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.17729800772151</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2">
+        <v>1.1772980077215101</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -3449,7 +3509,7 @@
         <v>1.234284596385838</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -3457,15 +3517,15 @@
         <v>1.70461545704863</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.691425304717474</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2">
+        <v>0.69142530471747399</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -3473,7 +3533,7 @@
         <v>1.650033559669589</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -3481,7 +3541,7 @@
         <v>1.600850134878004</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -3489,7 +3549,7 @@
         <v>1.777260352991527</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -3497,23 +3557,23 @@
         <v>1.348351967581217</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.698266047950349</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2">
+        <v>1.6982660479503491</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.454095893666237</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
+        <v>1.4540958936662369</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -3521,15 +3581,15 @@
         <v>1.33130478018715</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.7997551192911426</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2">
+        <v>0.79975511929114262</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -3537,7 +3597,7 @@
         <v>1.279197766079704</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -3545,15 +3605,15 @@
         <v>1.202930752838238</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.8306819916091607</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2">
+        <v>0.83068199160916067</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -3561,7 +3621,7 @@
         <v>1.227208003917752</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -3569,7 +3629,7 @@
         <v>1.183200244691136</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -3577,15 +3637,15 @@
         <v>1.745997473162807</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.7185580902812979</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2">
+        <v>0.71855809028129791</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -3593,31 +3653,31 @@
         <v>1.152529401740374</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.7283115991072577</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2">
+        <v>0.72831159910725773</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405">
-        <v>1.716108448303648</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2">
+        <v>1.7161084483036479</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.8387312282172126</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
+        <v>0.83873122821721258</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -3625,79 +3685,79 @@
         <v>1.087563716030667</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
       <c r="B408">
-        <v>1.409820288287086</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2">
+        <v>1.4098202882870861</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
       <c r="B409">
-        <v>1.314152472575543</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
+        <v>1.3141524725755429</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.7525085050093555</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2">
+        <v>0.75250850500935551</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
       <c r="B411">
-        <v>1.587299901319923</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2">
+        <v>1.5872999013199229</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.6761285535716653</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
+        <v>0.67612855357166535</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.9304590761019838</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2">
+        <v>0.93045907610198375</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
       <c r="B414">
-        <v>1.542862569564386</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
+        <v>1.5428625695643861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
       <c r="B415">
-        <v>1.028405645271628</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
+        <v>1.0284056452716279</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
       <c r="B416">
-        <v>1.301300890311404</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2">
+        <v>1.3013008903114041</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -3705,7 +3765,7 @@
         <v>0.8856985023755457</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -3713,15 +3773,15 @@
         <v>1.661153696290236</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
       <c r="B419">
-        <v>1.752128755226834</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2">
+        <v>1.7521287552268341</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -3729,23 +3789,23 @@
         <v>1.483006293473524</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
       <c r="B421">
-        <v>1.031940776497576</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2">
+        <v>1.0319407764975761</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.7538801334390542</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2">
+        <v>0.75388013343905425</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -3753,15 +3813,15 @@
         <v>0.7924794809928204</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
       <c r="B424">
-        <v>1.486346278915648</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2">
+        <v>1.4863462789156481</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -3769,15 +3829,15 @@
         <v>1.807575354850697</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.8536117700522313</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2">
+        <v>0.85361177005223132</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -3785,7 +3845,7 @@
         <v>1.475855459306934</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -3793,31 +3853,31 @@
         <v>1.388072702559856</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.6685227685765415</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2">
+        <v>0.66852276857654147</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
       <c r="B430">
-        <v>1.386350712392796</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2">
+        <v>1.3863507123927961</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.9673702071515218</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2">
+        <v>0.96737020715152178</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -3825,23 +3885,23 @@
         <v>1.217919180463727</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.7468536664928336</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2">
+        <v>0.74685366649283358</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
       <c r="B434">
-        <v>1.338496755846058</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2">
+        <v>1.3384967558460581</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -3849,7 +3909,7 @@
         <v>1.431081807328964</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -3857,7 +3917,7 @@
         <v>1.541249305186708</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -3865,7 +3925,7 @@
         <v>1.482444875994793</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -3873,23 +3933,23 @@
         <v>1.553140599552441</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
       <c r="B439">
-        <v>1.627920166887835</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2">
+        <v>1.6279201668878349</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
       <c r="B440">
-        <v>1.036455173181113</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2">
+        <v>1.0364551731811129</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -3897,31 +3957,31 @@
         <v>1.370222012279052</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
       <c r="B442">
-        <v>1.793808146872024</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2">
+        <v>1.7938081468720239</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
       <c r="B443">
-        <v>1.328090402413811</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2">
+        <v>1.3280904024138109</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
       <c r="B444">
-        <v>1.405528079625063</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2">
+        <v>1.4055280796250631</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -3929,7 +3989,7 @@
         <v>1.290741138982904</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -3937,7 +3997,7 @@
         <v>0.6863764782168732</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -3945,15 +4005,15 @@
         <v>1.472438280411662</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.740398219066298</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2">
+        <v>0.74039821906629799</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -3961,79 +4021,79 @@
         <v>1.738400231957163</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.7063784105898354</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2">
+        <v>0.70637841058983541</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.7977426285925912</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2">
+        <v>0.79774262859259115</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
       <c r="B452">
-        <v>1.06205123320301</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2">
+        <v>1.0620512332030101</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.7463928386454822</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2">
+        <v>0.74639283864548223</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.332785694217982</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2">
+        <v>1.3327856942179821</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.736853266626297</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2">
+        <v>0.73685326662629702</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.7407964448942054</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>0.74079644489420537</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.7673862057110757</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2">
+        <v>0.76738620571107574</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
       <c r="B458">
-        <v>1.093960390206394</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2">
+        <v>1.0939603902063939</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -4041,47 +4101,47 @@
         <v>1.220080328807071</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.875216388498969</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>0.87521638849896899</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
       <c r="B461">
-        <v>1.079478904505547</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2">
+        <v>1.0794789045055471</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
       <c r="B462">
-        <v>1.241819472369322</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>1.2418194723693221</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.6939714288397588</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2">
+        <v>0.69397142883975882</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.7463735090703792</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2">
+        <v>0.74637350907037925</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -4089,23 +4149,23 @@
         <v>1.039481189556227</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
       <c r="B466">
-        <v>1.027222520875165</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2">
+        <v>1.0272225208751651</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.958150394121103</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2">
+        <v>0.95815039412110303</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -4113,7 +4173,7 @@
         <v>1.153155696334742</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -4121,23 +4181,23 @@
         <v>0.8678840680279859</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.7330058016269679</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2">
+        <v>0.73300580162696793</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
       <c r="B471">
-        <v>1.001656183497669</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2">
+        <v>1.0016561834976689</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -4145,7 +4205,7 @@
         <v>0.8882629218981245</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -4153,31 +4213,31 @@
         <v>1.151871866926051</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.8096311603838915</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2">
+        <v>0.80963116038389149</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.8771336329818221</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
+        <v>0.87713363298182212</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.8158127040794418</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2">
+        <v>0.81581270407944184</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -4185,15 +4245,15 @@
         <v>1.045294051841865</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.9957636592952843</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
+        <v>0.99576365929528432</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -4201,15 +4261,15 @@
         <v>1.057663495426199</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.195957549024303</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2">
+        <v>1.1959575490243031</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -4217,7 +4277,7 @@
         <v>0.8956343490487938</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -4225,39 +4285,39 @@
         <v>0.8083309343760533</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.7474595734959522</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2">
+        <v>0.74745957349595216</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
       <c r="B484">
-        <v>1.031429019585436</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2">
+        <v>1.0314290195854361</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
       <c r="B485">
-        <v>1.170962791780677</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2">
+        <v>1.1709627917806771</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
       <c r="B486">
-        <v>1.261058922283737</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>1.2610589222837369</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -4265,15 +4325,15 @@
         <v>1.131683273676688</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.8049441378855348</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2">
+        <v>0.80494413788553476</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -4281,23 +4341,23 @@
         <v>1.090140458043479</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.7525465851431645</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2">
+        <v>0.75254658514316453</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.8732785440281332</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2">
+        <v>0.87327854402813321</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -4305,7 +4365,7 @@
         <v>1.088357899632858</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -4313,15 +4373,15 @@
         <v>0.9116698136489787</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
       <c r="B494">
-        <v>1.148994761293389</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
+        <v>1.1489947612933891</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -4329,23 +4389,23 @@
         <v>1.244444495910785</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
       <c r="B496">
-        <v>1.00593395713135</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2">
+        <v>1.0059339571313499</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
       <c r="B497">
-        <v>1.08693219614076</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2">
+        <v>1.0869321961407601</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -4353,15 +4413,15 @@
         <v>1.125604171854319</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
       <c r="B499">
-        <v>1.423310903675094</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
+        <v>1.4233109036750939</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -4369,23 +4429,23 @@
         <v>1.023508621287486</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
       <c r="B501">
-        <v>1.249960632161513</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2">
+        <v>1.2499606321615131</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.7908902077532456</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2">
+        <v>0.79089020775324559</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -4393,23 +4453,23 @@
         <v>0.7881184407041677</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.7624028326979113</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2">
+        <v>0.76240283269791131</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.9040611769900478</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2">
+        <v>0.90406117699004784</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -4417,47 +4477,47 @@
         <v>0.6736622653851001</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
       <c r="B507">
-        <v>0.9335782323655389</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2">
+        <v>0.93357823236553894</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
       <c r="B508">
-        <v>0.7131276706964202</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2">
+        <v>0.71312767069642025</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
       <c r="B509">
-        <v>0.7204433269615695</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2">
+        <v>0.72044332696156954</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
       <c r="B510">
-        <v>1.064277959817503</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2">
+        <v>1.0642779598175029</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
       <c r="B511">
-        <v>1.05145371271002</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2">
+        <v>1.0514537127100201</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -4465,15 +4525,15 @@
         <v>1.541849629069973</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.8933867330385528</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
+        <v>0.89338673303855276</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -4481,55 +4541,55 @@
         <v>0.8228239788082351</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515">
-        <v>0.7549997336106792</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
+        <v>0.75499973361067918</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516">
-        <v>1.237657067975595</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
+        <v>1.2376570679755949</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517">
-        <v>1.33669529149947</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
+        <v>1.3366952914994701</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.9482821553113372</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
+        <v>0.94828215531133719</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.8077067244120386</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
+        <v>0.80770672441203861</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520">
-        <v>1.27589247216093</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
+        <v>1.2758924721609299</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -4537,23 +4597,23 @@
         <v>1.321744368725704</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
       <c r="B522">
-        <v>0.6739790094704687</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
+        <v>0.67397900947046874</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.7008865244037301</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
+        <v>0.70088652440373012</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -4561,7 +4621,7 @@
         <v>1.48180474844701</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -4569,7 +4629,7 @@
         <v>1.192068052859204</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -4577,23 +4637,23 @@
         <v>1.16750066897641</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
       <c r="B527">
-        <v>1.289422497026596</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
+        <v>1.2894224970265959</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
       <c r="B528">
-        <v>1.079048601253001</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
+        <v>1.0790486012530009</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -4601,7 +4661,7 @@
         <v>1.084282290778279</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -4609,7 +4669,7 @@
         <v>1.298524227419608</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -4617,39 +4677,39 @@
         <v>0.9488205573336892</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
       <c r="B532">
-        <v>1.241718762286664</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
+        <v>1.2417187622866639</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
       <c r="B533">
-        <v>0.7277598887196356</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
+        <v>0.72775988871963559</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
       <c r="B534">
-        <v>1.103077725800162</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
+        <v>1.1030777258001621</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
       <c r="B535">
-        <v>1.409698667864752</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
+        <v>1.4096986678647521</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -4657,47 +4717,47 @@
         <v>1.056822579378762</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
       <c r="B537">
-        <v>1.133320933173834</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
+        <v>1.1333209331738341</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
       <c r="B538">
-        <v>1.652201393642014</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
+        <v>1.6522013936420139</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
       <c r="B539">
-        <v>0.940139995954028</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
+        <v>0.94013999595402797</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
       <c r="B540">
-        <v>0.946462327398002</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
+        <v>0.94646232739800196</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
       <c r="B541">
-        <v>0.8745090226945048</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
+        <v>0.87450902269450481</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -4705,7 +4765,7 @@
         <v>1.161996501851837</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -4713,15 +4773,15 @@
         <v>1.198427743327235</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
       <c r="B544">
-        <v>1.336727503884296</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
+        <v>1.3367275038842961</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -4729,23 +4789,23 @@
         <v>1.411736623423711</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0.8285275752200733</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
+        <v>0.82852757522007325</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
       <c r="B547">
-        <v>1.271318370913071</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
+        <v>1.2713183709130711</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -4753,31 +4813,31 @@
         <v>1.042737089941536</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0.9863872213488244</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2">
+        <v>0.98638722134882439</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
       <c r="B550">
-        <v>1.370244881890554</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
+        <v>1.3702448818905539</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.8777504703692465</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
+        <v>0.87775047036924647</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -4785,23 +4845,23 @@
         <v>1.3948191347509</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
       <c r="B553">
-        <v>1.330663776937595</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
+        <v>1.3306637769375951</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
       <c r="B554">
-        <v>1.235336531448818</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
+        <v>1.2353365314488181</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -4809,15 +4869,15 @@
         <v>1.028216450939486</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
       <c r="B556">
-        <v>1.183185546399455</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
+        <v>1.1831855463994549</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -4825,55 +4885,55 @@
         <v>1.788198571800873</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
       <c r="B558">
-        <v>1.152652444754619</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
+        <v>1.1526524447546189</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
       <c r="B559">
-        <v>1.354605615596096</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
+        <v>1.3546056155960959</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
       <c r="B560">
-        <v>0.6740174429366669</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2">
+        <v>0.67401744293666688</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
       <c r="B561">
-        <v>0.9970552659343054</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
+        <v>0.99705526593430538</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
       <c r="B562">
-        <v>0.9023684704162949</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
+        <v>0.90236847041629487</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
       <c r="B563">
-        <v>0.9495765013327983</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
+        <v>0.94957650133279825</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -4881,15 +4941,15 @@
         <v>0.9374371976338931</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
       <c r="B565">
-        <v>1.107590406836546</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
+        <v>1.1075904068365461</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -4897,23 +4957,23 @@
         <v>1.226231186530927</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
       <c r="B567">
-        <v>1.016970794405421</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
+        <v>1.0169707944054209</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
       <c r="B568">
-        <v>1.468898572686257</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
+        <v>1.4688985726862569</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -4921,39 +4981,39 @@
         <v>1.520857163681639</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
       <c r="B570">
-        <v>1.777225165277882</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
+        <v>1.7772251652778821</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
       <c r="B571">
-        <v>0.783916680043776</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
+        <v>0.78391668004377602</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
       <c r="B572">
-        <v>0.9259467877389304</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
+        <v>0.92594678773893035</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
       <c r="B573">
-        <v>1.014374816318868</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
+        <v>1.0143748163188679</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -4961,7 +5021,7 @@
         <v>1.395765317195343</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -4969,23 +5029,23 @@
         <v>1.173417901818042</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
       <c r="B576">
-        <v>1.099110642385208</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
+        <v>1.0991106423852079</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.9179867882771456</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
+        <v>0.91798678827714564</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -4993,7 +5053,7 @@
         <v>1.601062226149657</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -5001,15 +5061,15 @@
         <v>0.7693750652767426</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
       <c r="B580">
-        <v>1.093763970157913</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2">
+        <v>1.0937639701579129</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -5017,7 +5077,7 @@
         <v>1.032204111654619</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -5025,7 +5085,7 @@
         <v>1.242165467873648</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -5033,7 +5093,7 @@
         <v>1.561736882832238</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -5041,7 +5101,7 @@
         <v>1.604642564748479</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -5049,7 +5109,7 @@
         <v>1.006877419402501</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -5057,7 +5117,7 @@
         <v>1.454123684112395</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -5065,7 +5125,7 @@
         <v>1.067133810112654</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -5073,15 +5133,15 @@
         <v>1.631613562989189</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
       <c r="B589">
-        <v>1.038967356779675</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
+        <v>1.0389673567796751</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -5089,15 +5149,15 @@
         <v>1.0878682313913</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
       <c r="B591">
-        <v>1.291433832850709</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
+        <v>1.2914338328507089</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -5105,7 +5165,7 @@
         <v>1.269243706117136</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -5113,23 +5173,23 @@
         <v>1.21333487516245</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
       <c r="B594">
-        <v>1.271217323450652</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
+        <v>1.2712173234506521</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
       <c r="B595">
-        <v>0.8684556881276654</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
+        <v>0.86845568812766538</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -5137,7 +5197,7 @@
         <v>1.608534924847189</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -5145,7 +5205,7 @@
         <v>1.280875803055989</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -5153,7 +5213,7 @@
         <v>1.631986250313417</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -5161,7 +5221,7 @@
         <v>1.365106570459105</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -5169,31 +5229,31 @@
         <v>1.266151935247857</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
       <c r="B601">
-        <v>0.8112357013303652</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
+        <v>0.81123570133036516</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
       <c r="B602">
-        <v>0.8520024172170986</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
+        <v>0.85200241721709857</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
       <c r="B603">
-        <v>1.449577614909979</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
+        <v>1.4495776149099791</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -5201,15 +5261,15 @@
         <v>1.245580400872722</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
       <c r="B605">
-        <v>1.432219190632399</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
+        <v>1.4322191906323991</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -5217,23 +5277,23 @@
         <v>1.145430289403059</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
       <c r="B607">
-        <v>1.0083222823238</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
+        <v>1.0083222823238001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
       <c r="B608">
-        <v>1.196258124519246</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
+        <v>1.1962581245192461</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -5241,7 +5301,7 @@
         <v>1.231566816543477</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -5249,7 +5309,7 @@
         <v>1.348598801765976</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -5257,15 +5317,15 @@
         <v>1.481482259393992</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
       <c r="B612">
-        <v>0.73011590676656</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
+        <v>0.73011590676656002</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -5273,15 +5333,15 @@
         <v>1.589895591704281</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
       <c r="B614">
-        <v>1.312774128353342</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2">
+        <v>1.3127741283533421</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -5289,15 +5349,15 @@
         <v>1.498371443223447</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
       <c r="B616">
-        <v>1.11625657462984</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
+        <v>1.1162565746298401</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -5305,23 +5365,23 @@
         <v>1.338955584478988</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
       <c r="B618">
-        <v>1.449890606971796</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
+        <v>1.4498906069717961</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
       <c r="B619">
-        <v>1.642190010745692</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
+        <v>1.6421900107456919</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -5329,47 +5389,47 @@
         <v>1.173538382884276</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
       <c r="B621">
-        <v>1.054036592487373</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
+        <v>1.0540365924873729</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
       <c r="B622">
-        <v>1.459589546203727</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
+        <v>1.4595895462037269</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
       <c r="B623">
-        <v>1.296796815148023</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
+        <v>1.2967968151480229</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
       <c r="B624">
-        <v>1.146065970500859</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2">
+        <v>1.1460659705008589</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
       <c r="B625">
-        <v>1.366964309277359</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2">
+        <v>1.3669643092773589</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -5377,12 +5437,12 @@
         <v>0.8725095190075427</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
       <c r="B627">
-        <v>1.035858559058554</v>
+        <v>1.0358585590585541</v>
       </c>
     </row>
   </sheetData>
